--- a/uploads/Exam FVI-II-RICH DILIGENT .xlsx
+++ b/uploads/Exam FVI-II-RICH DILIGENT .xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="158">
   <si>
     <t>物料
 (成品鞋料號)</t>
@@ -476,6 +476,39 @@
   </si>
   <si>
     <t>2024/10/12</t>
+  </si>
+  <si>
+    <t>300000664</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2024/09/25</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>300000680</t>
+  </si>
+  <si>
+    <t>300000710</t>
+  </si>
+  <si>
+    <t>2024/09/26</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>2024/09/27</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2846,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -3099,15 +3132,300 @@
       <c r="A9" t="s" s="0">
         <v>146</v>
       </c>
+      <c r="B9" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="N9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="P9" t="s" s="0">
+        <v>150</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
         <v>146</v>
       </c>
+      <c r="B10" t="s" s="4">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="P10" t="s" s="0">
+        <v>150</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
         <v>146</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="P11" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="N12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="O12" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="P12" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="N13" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="P13" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="N14" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="O14" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="P14" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
